--- a/阿牧颗粒加工作坊/2021年新产品记账本.xlsx
+++ b/阿牧颗粒加工作坊/2021年新产品记账本.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\阿木\自创文档\阿牧颗粒加工厂\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\阿木\GIThub\amufile\阿牧颗粒加工作坊\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23328" windowHeight="9840" tabRatio="805" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23328" windowHeight="9840" tabRatio="805" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="犊牛营养YY3550" sheetId="14" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="150">
   <si>
     <r>
       <rPr>
@@ -826,10 +826,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>壮骨拉膘</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>磷脂</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -846,7 +842,38 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">配料记录表--犊牛营养     </t>
+    <t>牛肥宝</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">配料记录表--犊牛营养YY3450     </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天一头3两，一顿1.5两</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛犊3%预混S2950制作54浓缩</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>自配方案ZL4768</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>自配方案ZL4769</t>
+  </si>
+  <si>
+    <t>可配1172斤全价</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +884,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,6 +1083,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1066,6 +1094,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1371,7 +1407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1581,72 +1617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,12 +1653,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1698,14 +1662,32 @@
     <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1719,13 +1701,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2006,7 +2069,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2014,38 +2077,40 @@
     <col min="1" max="1" width="4.44140625" style="81" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="75" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11.88671875" style="75" customWidth="1"/>
-    <col min="6" max="7" width="9" style="75" customWidth="1"/>
-    <col min="8" max="10" width="6.88671875" style="75" customWidth="1"/>
-    <col min="11" max="11" width="9" style="73" customWidth="1"/>
+    <col min="6" max="7" width="8.77734375" style="75" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="75" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="75" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" style="75" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="75" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" style="73" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" style="73" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" style="75" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" style="75" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" style="75" customWidth="1"/>
     <col min="15" max="16384" width="11.21875" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-    </row>
-    <row r="2" spans="1:14" s="121" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
+    </row>
+    <row r="2" spans="1:14" s="97" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="126"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="52" t="s">
         <v>134</v>
       </c>
@@ -2065,41 +2130,68 @@
         <v>136</v>
       </c>
       <c r="I2" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="107" t="s">
         <v>82</v>
       </c>
       <c r="L2" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="52" t="s">
-        <v>139</v>
+      <c r="M2" s="107" t="s">
+        <v>138</v>
       </c>
       <c r="N2" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="77" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76">
         <v>1</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="58"/>
+      <c r="B3" s="106">
+        <v>44507</v>
+      </c>
+      <c r="C3" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="56">
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="G3" s="56">
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="H3" s="56">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="I3" s="56">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="J3" s="56">
+        <v>10</v>
+      </c>
+      <c r="K3" s="56">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="L3" s="56">
+        <f>SUM(C3:K3)</f>
+        <v>30</v>
+      </c>
+      <c r="M3" s="56">
+        <v>146</v>
+      </c>
+      <c r="N3" s="108" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="4" spans="1:14" s="77" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82">
@@ -2114,10 +2206,10 @@
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
-      <c r="K4" s="69"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="131"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76">
@@ -2132,10 +2224,10 @@
       <c r="H5" s="78"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78"/>
-      <c r="K5" s="71"/>
+      <c r="K5" s="78"/>
       <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="132"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76">
@@ -2150,10 +2242,10 @@
       <c r="H6" s="78"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78"/>
-      <c r="K6" s="71"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="132"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="101"/>
     </row>
     <row r="7" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76">
@@ -2168,10 +2260,10 @@
       <c r="H7" s="78"/>
       <c r="I7" s="78"/>
       <c r="J7" s="78"/>
-      <c r="K7" s="71"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="132"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="76">
@@ -2186,10 +2278,10 @@
       <c r="H8" s="78"/>
       <c r="I8" s="78"/>
       <c r="J8" s="78"/>
-      <c r="K8" s="71"/>
+      <c r="K8" s="78"/>
       <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="132"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="76">
@@ -2204,10 +2296,10 @@
       <c r="H9" s="78"/>
       <c r="I9" s="78"/>
       <c r="J9" s="78"/>
-      <c r="K9" s="71"/>
+      <c r="K9" s="78"/>
       <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="132"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="101"/>
     </row>
     <row r="10" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76">
@@ -2222,10 +2314,10 @@
       <c r="H10" s="78"/>
       <c r="I10" s="78"/>
       <c r="J10" s="78"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="78"/>
       <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="132"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="101"/>
     </row>
     <row r="11" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76">
@@ -2240,10 +2332,10 @@
       <c r="H11" s="78"/>
       <c r="I11" s="78"/>
       <c r="J11" s="78"/>
-      <c r="K11" s="71"/>
+      <c r="K11" s="78"/>
       <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="132"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="101"/>
     </row>
     <row r="12" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76">
@@ -2258,10 +2350,10 @@
       <c r="H12" s="78"/>
       <c r="I12" s="78"/>
       <c r="J12" s="78"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="78"/>
       <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="132"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="101"/>
     </row>
     <row r="13" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76">
@@ -2276,10 +2368,10 @@
       <c r="H13" s="78"/>
       <c r="I13" s="78"/>
       <c r="J13" s="78"/>
-      <c r="K13" s="71"/>
+      <c r="K13" s="78"/>
       <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="132"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="101"/>
     </row>
     <row r="14" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76">
@@ -2294,10 +2386,10 @@
       <c r="H14" s="78"/>
       <c r="I14" s="78"/>
       <c r="J14" s="78"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="78"/>
       <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="132"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="101"/>
     </row>
     <row r="15" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76">
@@ -2312,10 +2404,10 @@
       <c r="H15" s="78"/>
       <c r="I15" s="78"/>
       <c r="J15" s="78"/>
-      <c r="K15" s="71"/>
+      <c r="K15" s="78"/>
       <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="132"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="101"/>
     </row>
     <row r="16" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76">
@@ -2330,10 +2422,10 @@
       <c r="H16" s="78"/>
       <c r="I16" s="78"/>
       <c r="J16" s="78"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="78"/>
       <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="132"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="101"/>
     </row>
     <row r="17" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76">
@@ -2348,10 +2440,10 @@
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
       <c r="J17" s="78"/>
-      <c r="K17" s="71"/>
+      <c r="K17" s="78"/>
       <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="132"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="101"/>
     </row>
     <row r="18" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76">
@@ -2366,10 +2458,10 @@
       <c r="H18" s="78"/>
       <c r="I18" s="78"/>
       <c r="J18" s="78"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="78"/>
       <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="132"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="101"/>
     </row>
     <row r="19" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76">
@@ -2384,10 +2476,10 @@
       <c r="H19" s="78"/>
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
-      <c r="K19" s="71"/>
+      <c r="K19" s="78"/>
       <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="132"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="101"/>
     </row>
     <row r="20" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76">
@@ -2402,10 +2494,10 @@
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="78"/>
       <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="132"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="101"/>
     </row>
     <row r="21" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76">
@@ -2420,10 +2512,10 @@
       <c r="H21" s="78"/>
       <c r="I21" s="78"/>
       <c r="J21" s="78"/>
-      <c r="K21" s="71"/>
+      <c r="K21" s="78"/>
       <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="132"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="101"/>
     </row>
     <row r="22" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="76">
@@ -2438,10 +2530,10 @@
       <c r="H22" s="78"/>
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="78"/>
       <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="132"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="101"/>
     </row>
     <row r="23" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="76">
@@ -2456,10 +2548,10 @@
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="78"/>
       <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="132"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="101"/>
     </row>
     <row r="24" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76">
@@ -2474,10 +2566,10 @@
       <c r="H24" s="78"/>
       <c r="I24" s="78"/>
       <c r="J24" s="78"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="78"/>
       <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="132"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="101"/>
     </row>
     <row r="25" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76">
@@ -2492,10 +2584,10 @@
       <c r="H25" s="78"/>
       <c r="I25" s="78"/>
       <c r="J25" s="78"/>
-      <c r="K25" s="71"/>
+      <c r="K25" s="78"/>
       <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="132"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="101"/>
     </row>
     <row r="26" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76">
@@ -2510,10 +2602,10 @@
       <c r="H26" s="78"/>
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="78"/>
       <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="132"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="101"/>
     </row>
     <row r="27" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="76">
@@ -2528,10 +2620,10 @@
       <c r="H27" s="78"/>
       <c r="I27" s="78"/>
       <c r="J27" s="78"/>
-      <c r="K27" s="71"/>
+      <c r="K27" s="78"/>
       <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="132"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="101"/>
     </row>
     <row r="28" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76">
@@ -2546,10 +2638,10 @@
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="78"/>
       <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="132"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="101"/>
     </row>
     <row r="29" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76">
@@ -2564,10 +2656,10 @@
       <c r="H29" s="78"/>
       <c r="I29" s="78"/>
       <c r="J29" s="78"/>
-      <c r="K29" s="71"/>
+      <c r="K29" s="78"/>
       <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="132"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="101"/>
     </row>
     <row r="30" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="76">
@@ -2582,10 +2674,10 @@
       <c r="H30" s="78"/>
       <c r="I30" s="78"/>
       <c r="J30" s="78"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="78"/>
       <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="132"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="101"/>
     </row>
     <row r="31" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="76">
@@ -2600,10 +2692,10 @@
       <c r="H31" s="78"/>
       <c r="I31" s="78"/>
       <c r="J31" s="78"/>
-      <c r="K31" s="71"/>
+      <c r="K31" s="78"/>
       <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="132"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="101"/>
     </row>
     <row r="32" spans="1:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="79">
@@ -2618,10 +2710,10 @@
       <c r="H32" s="80"/>
       <c r="I32" s="80"/>
       <c r="J32" s="80"/>
-      <c r="K32" s="72"/>
+      <c r="K32" s="80"/>
       <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="133"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2659,27 +2751,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="33" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="105"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="138"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
@@ -3550,20 +3642,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="33" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -4087,22 +4179,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="26" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="105"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="138"/>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -4607,21 +4699,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="12" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="102"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="135"/>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -5158,27 +5250,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -7448,27 +7540,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="116"/>
     </row>
     <row r="2" spans="1:13" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="52" t="s">
         <v>87</v>
       </c>
@@ -8048,10 +8140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8065,34 +8157,32 @@
     <col min="8" max="8" width="9.5546875" style="75" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="75" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" style="75" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="73" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="75" customWidth="1"/>
-    <col min="13" max="13" width="25.109375" style="75" customWidth="1"/>
-    <col min="14" max="16384" width="11.21875" style="75"/>
+    <col min="11" max="11" width="12.88671875" style="73" customWidth="1"/>
+    <col min="12" max="12" width="29.109375" style="75" customWidth="1"/>
+    <col min="13" max="16384" width="11.21875" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13" s="121" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="1" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="123"/>
+    </row>
+    <row r="2" spans="1:12" s="97" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
@@ -8108,75 +8198,112 @@
       <c r="G2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="97" t="s">
         <v>97</v>
       </c>
       <c r="I2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="J2" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="123" t="s">
+      <c r="K2" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="125"/>
-    </row>
-    <row r="3" spans="1:13" s="77" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="77" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76">
         <v>1</v>
       </c>
       <c r="B3" s="56"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="C3" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="56">
+        <v>395</v>
+      </c>
+      <c r="E3" s="56">
+        <v>145</v>
+      </c>
+      <c r="F3" s="56">
+        <v>9</v>
+      </c>
+      <c r="G3" s="56">
+        <v>51</v>
+      </c>
       <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="1:13" s="77" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="56">
+        <f>SUM(C3:H3)</f>
+        <v>600</v>
+      </c>
+      <c r="J3" s="56">
+        <v>1190</v>
+      </c>
+      <c r="K3" s="142" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="77" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82">
         <v>2</v>
       </c>
       <c r="B4" s="56"/>
-      <c r="C4" s="74"/>
+      <c r="C4" s="74">
+        <v>556</v>
+      </c>
       <c r="D4" s="56"/>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="H4" s="56">
+        <v>300</v>
+      </c>
+      <c r="I4" s="56">
+        <f t="shared" ref="I4:I5" si="0">SUM(C4:H4)</f>
+        <v>856</v>
+      </c>
+      <c r="J4" s="56">
+        <v>1433</v>
+      </c>
       <c r="K4" s="69"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="93"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76">
+      <c r="L4" s="140" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="77" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82">
         <v>3</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="86"/>
-    </row>
-    <row r="6" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74">
+        <v>556</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74">
+        <v>300</v>
+      </c>
+      <c r="I5" s="56">
+        <f t="shared" si="0"/>
+        <v>856</v>
+      </c>
+      <c r="J5" s="56">
+        <v>1433</v>
+      </c>
+      <c r="K5" s="99"/>
+      <c r="L5" s="140" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76">
         <v>4</v>
       </c>
@@ -8190,10 +8317,9 @@
       <c r="I6" s="78"/>
       <c r="J6" s="78"/>
       <c r="K6" s="71"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="86"/>
-    </row>
-    <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="103"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76">
         <v>5</v>
       </c>
@@ -8207,10 +8333,9 @@
       <c r="I7" s="78"/>
       <c r="J7" s="78"/>
       <c r="K7" s="71"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="86"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="103"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="76">
         <v>6</v>
       </c>
@@ -8224,10 +8349,9 @@
       <c r="I8" s="78"/>
       <c r="J8" s="78"/>
       <c r="K8" s="71"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="103"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="76">
         <v>7</v>
       </c>
@@ -8241,10 +8365,9 @@
       <c r="I9" s="78"/>
       <c r="J9" s="78"/>
       <c r="K9" s="71"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="103"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76">
         <v>8</v>
       </c>
@@ -8258,10 +8381,9 @@
       <c r="I10" s="78"/>
       <c r="J10" s="78"/>
       <c r="K10" s="71"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="86"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="103"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76">
         <v>9</v>
       </c>
@@ -8275,10 +8397,9 @@
       <c r="I11" s="78"/>
       <c r="J11" s="78"/>
       <c r="K11" s="71"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="86"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="103"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76">
         <v>10</v>
       </c>
@@ -8292,10 +8413,9 @@
       <c r="I12" s="78"/>
       <c r="J12" s="78"/>
       <c r="K12" s="71"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="86"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="103"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76">
         <v>11</v>
       </c>
@@ -8309,10 +8429,9 @@
       <c r="I13" s="78"/>
       <c r="J13" s="78"/>
       <c r="K13" s="71"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="86"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="103"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76">
         <v>12</v>
       </c>
@@ -8326,10 +8445,9 @@
       <c r="I14" s="78"/>
       <c r="J14" s="78"/>
       <c r="K14" s="71"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="86"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="103"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76">
         <v>13</v>
       </c>
@@ -8343,10 +8461,9 @@
       <c r="I15" s="78"/>
       <c r="J15" s="78"/>
       <c r="K15" s="71"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="86"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="103"/>
+    </row>
+    <row r="16" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76">
         <v>14</v>
       </c>
@@ -8360,10 +8477,9 @@
       <c r="I16" s="78"/>
       <c r="J16" s="78"/>
       <c r="K16" s="71"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="86"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="103"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76">
         <v>15</v>
       </c>
@@ -8377,10 +8493,9 @@
       <c r="I17" s="78"/>
       <c r="J17" s="78"/>
       <c r="K17" s="71"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="86"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="103"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76">
         <v>16</v>
       </c>
@@ -8394,10 +8509,9 @@
       <c r="I18" s="78"/>
       <c r="J18" s="78"/>
       <c r="K18" s="71"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="86"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="103"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76">
         <v>17</v>
       </c>
@@ -8411,10 +8525,9 @@
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
       <c r="K19" s="71"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="103"/>
+    </row>
+    <row r="20" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76">
         <v>18</v>
       </c>
@@ -8428,10 +8541,9 @@
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
       <c r="K20" s="71"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="86"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="103"/>
+    </row>
+    <row r="21" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76">
         <v>19</v>
       </c>
@@ -8445,10 +8557,9 @@
       <c r="I21" s="78"/>
       <c r="J21" s="78"/>
       <c r="K21" s="71"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="86"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="103"/>
+    </row>
+    <row r="22" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="76">
         <v>20</v>
       </c>
@@ -8462,10 +8573,9 @@
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
       <c r="K22" s="71"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="86"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="103"/>
+    </row>
+    <row r="23" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="76">
         <v>21</v>
       </c>
@@ -8479,10 +8589,9 @@
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
       <c r="K23" s="71"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="86"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="103"/>
+    </row>
+    <row r="24" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76">
         <v>22</v>
       </c>
@@ -8496,10 +8605,9 @@
       <c r="I24" s="78"/>
       <c r="J24" s="78"/>
       <c r="K24" s="71"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="86"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="103"/>
+    </row>
+    <row r="25" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76">
         <v>23</v>
       </c>
@@ -8513,10 +8621,9 @@
       <c r="I25" s="78"/>
       <c r="J25" s="78"/>
       <c r="K25" s="71"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="86"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="103"/>
+    </row>
+    <row r="26" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76">
         <v>24</v>
       </c>
@@ -8530,10 +8637,9 @@
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
       <c r="K26" s="71"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="86"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="103"/>
+    </row>
+    <row r="27" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="76">
         <v>25</v>
       </c>
@@ -8547,10 +8653,9 @@
       <c r="I27" s="78"/>
       <c r="J27" s="78"/>
       <c r="K27" s="71"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="86"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="103"/>
+    </row>
+    <row r="28" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76">
         <v>26</v>
       </c>
@@ -8564,10 +8669,9 @@
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
       <c r="K28" s="71"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="86"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="103"/>
+    </row>
+    <row r="29" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76">
         <v>27</v>
       </c>
@@ -8581,10 +8685,9 @@
       <c r="I29" s="78"/>
       <c r="J29" s="78"/>
       <c r="K29" s="71"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="86"/>
-    </row>
-    <row r="30" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="103"/>
+    </row>
+    <row r="30" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="76">
         <v>28</v>
       </c>
@@ -8598,10 +8701,9 @@
       <c r="I30" s="78"/>
       <c r="J30" s="78"/>
       <c r="K30" s="71"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="86"/>
-    </row>
-    <row r="31" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="103"/>
+    </row>
+    <row r="31" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="76">
         <v>29</v>
       </c>
@@ -8615,10 +8717,9 @@
       <c r="I31" s="78"/>
       <c r="J31" s="78"/>
       <c r="K31" s="71"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="86"/>
-    </row>
-    <row r="32" spans="1:13" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="103"/>
+    </row>
+    <row r="32" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="79">
         <v>30</v>
       </c>
@@ -8632,44 +8733,12 @@
       <c r="I32" s="80"/>
       <c r="J32" s="80"/>
       <c r="K32" s="72"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="120"/>
+      <c r="L32" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8703,27 +8772,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="116"/>
     </row>
     <row r="2" spans="1:13" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="52" t="s">
         <v>87</v>
       </c>
@@ -9307,7 +9376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -9329,27 +9398,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13" s="121" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="123"/>
+    </row>
+    <row r="2" spans="1:13" s="97" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
@@ -9365,16 +9434,16 @@
       <c r="G2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="97" t="s">
         <v>97</v>
       </c>
       <c r="I2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="J2" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="123" t="s">
+      <c r="K2" s="99" t="s">
         <v>100</v>
       </c>
       <c r="L2" s="124" t="s">
@@ -9411,10 +9480,10 @@
         <v>265</v>
       </c>
       <c r="K3" s="69"/>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="91"/>
+      <c r="M3" s="127"/>
     </row>
     <row r="4" spans="1:13" s="77" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82">
@@ -9439,10 +9508,10 @@
         <v>1011.62</v>
       </c>
       <c r="K4" s="69"/>
-      <c r="L4" s="92" t="s">
+      <c r="L4" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="93"/>
+      <c r="M4" s="129"/>
     </row>
     <row r="5" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76">
@@ -9458,8 +9527,8 @@
       <c r="I5" s="78"/>
       <c r="J5" s="78"/>
       <c r="K5" s="71"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="86"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="120"/>
     </row>
     <row r="6" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76">
@@ -9475,8 +9544,8 @@
       <c r="I6" s="78"/>
       <c r="J6" s="78"/>
       <c r="K6" s="71"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="86"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="120"/>
     </row>
     <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76">
@@ -9492,8 +9561,8 @@
       <c r="I7" s="78"/>
       <c r="J7" s="78"/>
       <c r="K7" s="71"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="86"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="120"/>
     </row>
     <row r="8" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="76">
@@ -9509,8 +9578,8 @@
       <c r="I8" s="78"/>
       <c r="J8" s="78"/>
       <c r="K8" s="71"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="120"/>
     </row>
     <row r="9" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="76">
@@ -9526,8 +9595,8 @@
       <c r="I9" s="78"/>
       <c r="J9" s="78"/>
       <c r="K9" s="71"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="120"/>
     </row>
     <row r="10" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76">
@@ -9543,8 +9612,8 @@
       <c r="I10" s="78"/>
       <c r="J10" s="78"/>
       <c r="K10" s="71"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="86"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="120"/>
     </row>
     <row r="11" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76">
@@ -9560,8 +9629,8 @@
       <c r="I11" s="78"/>
       <c r="J11" s="78"/>
       <c r="K11" s="71"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="86"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="120"/>
     </row>
     <row r="12" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76">
@@ -9577,8 +9646,8 @@
       <c r="I12" s="78"/>
       <c r="J12" s="78"/>
       <c r="K12" s="71"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="86"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="120"/>
     </row>
     <row r="13" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76">
@@ -9594,8 +9663,8 @@
       <c r="I13" s="78"/>
       <c r="J13" s="78"/>
       <c r="K13" s="71"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="86"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="120"/>
     </row>
     <row r="14" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76">
@@ -9611,8 +9680,8 @@
       <c r="I14" s="78"/>
       <c r="J14" s="78"/>
       <c r="K14" s="71"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="86"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="120"/>
     </row>
     <row r="15" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76">
@@ -9628,8 +9697,8 @@
       <c r="I15" s="78"/>
       <c r="J15" s="78"/>
       <c r="K15" s="71"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="86"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="120"/>
     </row>
     <row r="16" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76">
@@ -9645,8 +9714,8 @@
       <c r="I16" s="78"/>
       <c r="J16" s="78"/>
       <c r="K16" s="71"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="86"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="120"/>
     </row>
     <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76">
@@ -9662,8 +9731,8 @@
       <c r="I17" s="78"/>
       <c r="J17" s="78"/>
       <c r="K17" s="71"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="86"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="120"/>
     </row>
     <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76">
@@ -9679,8 +9748,8 @@
       <c r="I18" s="78"/>
       <c r="J18" s="78"/>
       <c r="K18" s="71"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="86"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="120"/>
     </row>
     <row r="19" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76">
@@ -9696,8 +9765,8 @@
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
       <c r="K19" s="71"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="120"/>
     </row>
     <row r="20" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76">
@@ -9713,8 +9782,8 @@
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
       <c r="K20" s="71"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="86"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="120"/>
     </row>
     <row r="21" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76">
@@ -9730,8 +9799,8 @@
       <c r="I21" s="78"/>
       <c r="J21" s="78"/>
       <c r="K21" s="71"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="86"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="120"/>
     </row>
     <row r="22" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="76">
@@ -9747,8 +9816,8 @@
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
       <c r="K22" s="71"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="86"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="120"/>
     </row>
     <row r="23" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="76">
@@ -9764,8 +9833,8 @@
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
       <c r="K23" s="71"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="86"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="120"/>
     </row>
     <row r="24" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76">
@@ -9781,8 +9850,8 @@
       <c r="I24" s="78"/>
       <c r="J24" s="78"/>
       <c r="K24" s="71"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="86"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="120"/>
     </row>
     <row r="25" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76">
@@ -9798,8 +9867,8 @@
       <c r="I25" s="78"/>
       <c r="J25" s="78"/>
       <c r="K25" s="71"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="86"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="120"/>
     </row>
     <row r="26" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76">
@@ -9815,8 +9884,8 @@
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
       <c r="K26" s="71"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="86"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="120"/>
     </row>
     <row r="27" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="76">
@@ -9832,8 +9901,8 @@
       <c r="I27" s="78"/>
       <c r="J27" s="78"/>
       <c r="K27" s="71"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="86"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="120"/>
     </row>
     <row r="28" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76">
@@ -9849,8 +9918,8 @@
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
       <c r="K28" s="71"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="86"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="120"/>
     </row>
     <row r="29" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76">
@@ -9866,8 +9935,8 @@
       <c r="I29" s="78"/>
       <c r="J29" s="78"/>
       <c r="K29" s="71"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="86"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="120"/>
     </row>
     <row r="30" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="76">
@@ -9883,8 +9952,8 @@
       <c r="I30" s="78"/>
       <c r="J30" s="78"/>
       <c r="K30" s="71"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="86"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="120"/>
     </row>
     <row r="31" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="76">
@@ -9900,8 +9969,8 @@
       <c r="I31" s="78"/>
       <c r="J31" s="78"/>
       <c r="K31" s="71"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="86"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="120"/>
     </row>
     <row r="32" spans="1:13" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="79">
@@ -9917,8 +9986,8 @@
       <c r="I32" s="80"/>
       <c r="J32" s="80"/>
       <c r="K32" s="72"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="120"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -9989,63 +10058,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="96"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="116"/>
     </row>
     <row r="2" spans="1:15" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="107" t="s">
+      <c r="B2" s="118"/>
+      <c r="C2" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="107" t="s">
+      <c r="L2" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="118" t="s">
+      <c r="M2" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="118" t="s">
+      <c r="N2" s="96" t="s">
         <v>130</v>
       </c>
       <c r="O2" s="53" t="s">
@@ -10059,41 +10128,41 @@
       <c r="B3" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="95">
         <v>3.5</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="95">
         <v>3.5</v>
       </c>
-      <c r="E3" s="117">
+      <c r="E3" s="95">
         <v>7</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="95">
         <v>2.1</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="95">
         <v>3.5</v>
       </c>
-      <c r="H3" s="117">
+      <c r="H3" s="95">
         <v>1.4</v>
       </c>
-      <c r="I3" s="117">
+      <c r="I3" s="95">
         <v>2.1</v>
       </c>
-      <c r="J3" s="117">
+      <c r="J3" s="95">
         <v>7</v>
       </c>
-      <c r="K3" s="117">
+      <c r="K3" s="95">
         <v>3.5</v>
       </c>
-      <c r="L3" s="117">
+      <c r="L3" s="95">
         <v>1.4</v>
       </c>
-      <c r="M3" s="113">
+      <c r="M3" s="91">
         <f>SUM(C3:L3)</f>
         <v>35</v>
       </c>
-      <c r="N3" s="113">
+      <c r="N3" s="91">
         <v>195</v>
       </c>
       <c r="O3" s="58" t="s">
@@ -10115,8 +10184,8 @@
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="70"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -10647,8 +10716,8 @@
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
       <c r="L32" s="72"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
       <c r="O32" s="66"/>
     </row>
   </sheetData>
@@ -10681,59 +10750,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="96"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="116"/>
     </row>
     <row r="2" spans="1:14" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="109" t="s">
+      <c r="B2" s="118"/>
+      <c r="C2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="109" t="s">
+      <c r="K2" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="111" t="s">
+      <c r="L2" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="112" t="s">
+      <c r="M2" s="90" t="s">
         <v>118</v>
       </c>
       <c r="N2" s="53" t="s">
@@ -10778,7 +10847,7 @@
         <f>SUM(C3:K3)</f>
         <v>305.3</v>
       </c>
-      <c r="M3" s="113">
+      <c r="M3" s="91">
         <v>516</v>
       </c>
       <c r="N3" s="58" t="s">
@@ -10800,7 +10869,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
-      <c r="M4" s="114"/>
+      <c r="M4" s="92"/>
       <c r="N4" s="62"/>
     </row>
     <row r="5" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -11304,7 +11373,7 @@
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
       <c r="L32" s="80"/>
-      <c r="M32" s="115"/>
+      <c r="M32" s="93"/>
       <c r="N32" s="66"/>
     </row>
   </sheetData>
@@ -11363,29 +11432,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="102"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="135"/>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">

--- a/阿牧颗粒加工作坊/2021年新产品记账本.xlsx
+++ b/阿牧颗粒加工作坊/2021年新产品记账本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23328" windowHeight="9840" tabRatio="805" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23328" windowHeight="9840" tabRatio="805" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="犊牛营养YY3550" sheetId="14" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="151">
   <si>
     <r>
       <rPr>
@@ -875,6 +875,10 @@
   <si>
     <t>可配1172斤全价</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.11.15</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1689,6 +1693,15 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1719,12 +1732,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1734,11 +1741,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1752,11 +1765,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1781,15 +1794,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2089,28 +2093,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="114"/>
     </row>
     <row r="2" spans="1:14" s="97" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="116"/>
       <c r="C2" s="52" t="s">
         <v>134</v>
       </c>
@@ -2751,27 +2755,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="33" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="138"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="141"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
@@ -3642,20 +3646,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="33" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="138"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="141"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -4179,22 +4183,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="26" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="138"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="141"/>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -4699,21 +4703,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="12" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="135"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="138"/>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -5250,27 +5254,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -5991,7 +5995,7 @@
   <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7540,27 +7544,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
     </row>
     <row r="2" spans="1:13" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="118"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="52" t="s">
         <v>87</v>
       </c>
@@ -8142,7 +8146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -8163,26 +8167,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="123"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="124"/>
     </row>
     <row r="2" spans="1:12" s="97" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="118"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
@@ -8242,10 +8246,10 @@
       <c r="J3" s="56">
         <v>1190</v>
       </c>
-      <c r="K3" s="142" t="s">
+      <c r="K3" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="L3" s="141" t="s">
+      <c r="L3" s="110" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8272,7 +8276,7 @@
         <v>1433</v>
       </c>
       <c r="K4" s="69"/>
-      <c r="L4" s="140" t="s">
+      <c r="L4" s="109" t="s">
         <v>147</v>
       </c>
     </row>
@@ -8299,7 +8303,7 @@
         <v>1433</v>
       </c>
       <c r="K5" s="99"/>
-      <c r="L5" s="140" t="s">
+      <c r="L5" s="109" t="s">
         <v>148</v>
       </c>
     </row>
@@ -8772,27 +8776,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
     </row>
     <row r="2" spans="1:13" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="118"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="52" t="s">
         <v>87</v>
       </c>
@@ -9398,27 +9402,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="123"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:13" s="97" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="118"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
@@ -9446,10 +9450,10 @@
       <c r="K2" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="124" t="s">
+      <c r="L2" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="125"/>
+      <c r="M2" s="134"/>
     </row>
     <row r="3" spans="1:13" s="77" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76">
@@ -9480,10 +9484,10 @@
         <v>265</v>
       </c>
       <c r="K3" s="69"/>
-      <c r="L3" s="126" t="s">
+      <c r="L3" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="127"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="1:13" s="77" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82">
@@ -9508,10 +9512,10 @@
         <v>1011.62</v>
       </c>
       <c r="K4" s="69"/>
-      <c r="L4" s="128" t="s">
+      <c r="L4" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="132"/>
     </row>
     <row r="5" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76">
@@ -9527,8 +9531,8 @@
       <c r="I5" s="78"/>
       <c r="J5" s="78"/>
       <c r="K5" s="71"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="120"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="126"/>
     </row>
     <row r="6" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76">
@@ -9544,8 +9548,8 @@
       <c r="I6" s="78"/>
       <c r="J6" s="78"/>
       <c r="K6" s="71"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="120"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="126"/>
     </row>
     <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76">
@@ -9561,8 +9565,8 @@
       <c r="I7" s="78"/>
       <c r="J7" s="78"/>
       <c r="K7" s="71"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="120"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="126"/>
     </row>
     <row r="8" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="76">
@@ -9578,8 +9582,8 @@
       <c r="I8" s="78"/>
       <c r="J8" s="78"/>
       <c r="K8" s="71"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="120"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="126"/>
     </row>
     <row r="9" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="76">
@@ -9595,8 +9599,8 @@
       <c r="I9" s="78"/>
       <c r="J9" s="78"/>
       <c r="K9" s="71"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="120"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="126"/>
     </row>
     <row r="10" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76">
@@ -9612,8 +9616,8 @@
       <c r="I10" s="78"/>
       <c r="J10" s="78"/>
       <c r="K10" s="71"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="120"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="126"/>
     </row>
     <row r="11" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76">
@@ -9629,8 +9633,8 @@
       <c r="I11" s="78"/>
       <c r="J11" s="78"/>
       <c r="K11" s="71"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="120"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76">
@@ -9646,8 +9650,8 @@
       <c r="I12" s="78"/>
       <c r="J12" s="78"/>
       <c r="K12" s="71"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="120"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="126"/>
     </row>
     <row r="13" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76">
@@ -9663,8 +9667,8 @@
       <c r="I13" s="78"/>
       <c r="J13" s="78"/>
       <c r="K13" s="71"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="120"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="126"/>
     </row>
     <row r="14" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76">
@@ -9680,8 +9684,8 @@
       <c r="I14" s="78"/>
       <c r="J14" s="78"/>
       <c r="K14" s="71"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="120"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="126"/>
     </row>
     <row r="15" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76">
@@ -9697,8 +9701,8 @@
       <c r="I15" s="78"/>
       <c r="J15" s="78"/>
       <c r="K15" s="71"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="120"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="126"/>
     </row>
     <row r="16" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76">
@@ -9714,8 +9718,8 @@
       <c r="I16" s="78"/>
       <c r="J16" s="78"/>
       <c r="K16" s="71"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="126"/>
     </row>
     <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76">
@@ -9731,8 +9735,8 @@
       <c r="I17" s="78"/>
       <c r="J17" s="78"/>
       <c r="K17" s="71"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="120"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="126"/>
     </row>
     <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76">
@@ -9748,8 +9752,8 @@
       <c r="I18" s="78"/>
       <c r="J18" s="78"/>
       <c r="K18" s="71"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="120"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="126"/>
     </row>
     <row r="19" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76">
@@ -9765,8 +9769,8 @@
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
       <c r="K19" s="71"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="120"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="126"/>
     </row>
     <row r="20" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76">
@@ -9782,8 +9786,8 @@
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
       <c r="K20" s="71"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="120"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="126"/>
     </row>
     <row r="21" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76">
@@ -9799,8 +9803,8 @@
       <c r="I21" s="78"/>
       <c r="J21" s="78"/>
       <c r="K21" s="71"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="120"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="126"/>
     </row>
     <row r="22" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="76">
@@ -9816,8 +9820,8 @@
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
       <c r="K22" s="71"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="120"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="126"/>
     </row>
     <row r="23" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="76">
@@ -9833,8 +9837,8 @@
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
       <c r="K23" s="71"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="120"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="126"/>
     </row>
     <row r="24" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76">
@@ -9850,8 +9854,8 @@
       <c r="I24" s="78"/>
       <c r="J24" s="78"/>
       <c r="K24" s="71"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="120"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="126"/>
     </row>
     <row r="25" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76">
@@ -9867,8 +9871,8 @@
       <c r="I25" s="78"/>
       <c r="J25" s="78"/>
       <c r="K25" s="71"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="120"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="126"/>
     </row>
     <row r="26" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76">
@@ -9884,8 +9888,8 @@
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
       <c r="K26" s="71"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="120"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="126"/>
     </row>
     <row r="27" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="76">
@@ -9901,8 +9905,8 @@
       <c r="I27" s="78"/>
       <c r="J27" s="78"/>
       <c r="K27" s="71"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="120"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
     </row>
     <row r="28" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76">
@@ -9918,8 +9922,8 @@
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
       <c r="K28" s="71"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="120"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="126"/>
     </row>
     <row r="29" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76">
@@ -9935,8 +9939,8 @@
       <c r="I29" s="78"/>
       <c r="J29" s="78"/>
       <c r="K29" s="71"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="120"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="126"/>
     </row>
     <row r="30" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="76">
@@ -9952,8 +9956,8 @@
       <c r="I30" s="78"/>
       <c r="J30" s="78"/>
       <c r="K30" s="71"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="120"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="126"/>
     </row>
     <row r="31" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="76">
@@ -9969,8 +9973,8 @@
       <c r="I31" s="78"/>
       <c r="J31" s="78"/>
       <c r="K31" s="71"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="120"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="126"/>
     </row>
     <row r="32" spans="1:13" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="79">
@@ -9986,20 +9990,23 @@
       <c r="I32" s="80"/>
       <c r="J32" s="80"/>
       <c r="K32" s="72"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="131"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
@@ -10012,18 +10019,15 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10058,29 +10062,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="119"/>
     </row>
     <row r="2" spans="1:15" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="118"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="85" t="s">
         <v>88</v>
       </c>
@@ -10735,8 +10739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10750,28 +10754,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="119"/>
     </row>
     <row r="2" spans="1:14" s="54" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="118"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="87" t="s">
         <v>2</v>
       </c>
@@ -10858,19 +10862,46 @@
       <c r="A4" s="55">
         <v>2</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="62"/>
+      <c r="B4" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="61">
+        <v>268</v>
+      </c>
+      <c r="D4" s="60">
+        <v>36</v>
+      </c>
+      <c r="E4" s="60">
+        <v>40</v>
+      </c>
+      <c r="F4" s="60">
+        <v>16</v>
+      </c>
+      <c r="G4" s="60">
+        <v>12</v>
+      </c>
+      <c r="H4" s="60">
+        <v>4</v>
+      </c>
+      <c r="I4" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="J4" s="60">
+        <v>4</v>
+      </c>
+      <c r="K4" s="60">
+        <v>20</v>
+      </c>
+      <c r="L4" s="60">
+        <f>SUM(C4:K4)</f>
+        <v>400.4</v>
+      </c>
+      <c r="M4" s="92">
+        <v>687</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
@@ -11432,29 +11463,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="135"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="138"/>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
